--- a/biology/Botanique/Ailanthus/Ailanthus.xlsx
+++ b/biology/Botanique/Ailanthus/Ailanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ailantes
 Ailanthus est un genre de plantes à fleurs de la famille des Simaroubaceae. Ce sont les ailantes ou ailanthes.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (27 octobre 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (27 octobre 2020) :
 Ailanthus altissima - L'Ailante glanduleux
 Ailanthus altissima var. sutchuanensis
 Ailanthus altissima var. tanakai
@@ -525,9 +539,9 @@
 Ailanthus integrifolia subsp. integrifolia
 Ailanthus triphysa
 Ailanthus vietnamensis
-Selon ITIS      (29 mai 2013)[1] :
+Selon ITIS      (29 mai 2013) :
 Ailanthus altissima (Mill.) Swingle
-Selon NCBI  (4 juin 2012)[3] :
+Selon NCBI  (4 juin 2012) :
 Ailanthus altissima
 Ailanthus fordii
 Ailanthus giraldii
@@ -540,7 +554,7 @@
 Ailanthus moluccana DC.
 Ailanthus triphysa (Dennst.) Alston
 Ailanthus vietnamensis H. V. Sam et Nooteboom, 2007
-Selon Paleobiology Database                   (4 juin 2012)[4] :
+Selon Paleobiology Database                   (4 juin 2012) :
 Ailanthus lesquereuxi</t>
         </is>
       </c>
